--- a/excel-data/Jackets-data.xlsx
+++ b/excel-data/Jackets-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bryan.joe.haboc\Desktop\Polder\the_odin_project\shop-app\excel-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EA8DD44-9524-46FF-ADE2-CBC71E73E882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748C46F8-3979-4C7F-97C1-54F1561E3EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{513051CE-E720-410C-A646-25D963BBDB2D}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'output (3)'!$A$1:$D$6</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'output (3)'!$A$1:$E$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
     <t>Black Jean Shearling</t>
   </si>
@@ -91,6 +91,111 @@
   </si>
   <si>
     <t>price</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Yellow Hoodie</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/1183266/pexels-photo-1183266.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/977796/pexels-photo-977796.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>Black Leather Jacket</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/1105058/pexels-photo-1105058.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>Blue Denim Jacket</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/833170/pexels-photo-833170.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>Black and Red Zip-Up Jacket</t>
+  </si>
+  <si>
+    <t>Dark Green Jacket</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/12219745/pexels-photo-12219745.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/11960005/pexels-photo-11960005.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>Green Jacket</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/11484906/pexels-photo-11484906.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>Black Suit Jacket</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/2887718/pexels-photo-2887718.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>Black and Red Jacket</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/2245433/pexels-photo-2245433.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>Brown Jacket</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/1770193/pexels-photo-1770193.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>Suede Jacket</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/11956808/pexels-photo-11956808.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>Pink Jacket</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/8612946/pexels-photo-8612946.png?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>Ash Grey Jacket</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/11332385/pexels-photo-11332385.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>Light Colored Jacket</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/747470/pexels-photo-747470.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>Red Jacket</t>
+  </si>
+  <si>
+    <t>Black shearling is a classic winter coat for men and women that has been around for ages. It is made from the fur of one or more black sheep or lambs, or a mix of black sheep and white sheep.</t>
+  </si>
+  <si>
+    <t>A blue jean jacket is a nice wardrobe staple. They are often worn over T shirts and can be casual or smart.</t>
+  </si>
+  <si>
+    <t>This is a great basic style and is perfect for casual wear. Add some colour with a pop of tangerine or some contrast with a lighter blue.</t>
+  </si>
+  <si>
+    <t>Brown shearling is a luxurious coat that is worn by many men and women. It has been a long time since it was in vogue but it's making a comeback.</t>
+  </si>
+  <si>
+    <t>The Tan Trench is an attractive and versatile coat for men and women, suitable for both warmer and cooler weather.</t>
+  </si>
+  <si>
+    <t>A yellow hoodie can brighten up any outfit. Wear it with jeans or dress it up with skinny jeans and a vest.</t>
   </si>
 </sst>
 </file>
@@ -147,10 +252,11 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{AFABF0ED-23EC-47AB-884F-91FFFD0A336E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="5">
-    <queryTableFields count="4">
+  <queryTableRefresh nextId="6">
+    <queryTableFields count="5">
       <queryTableField id="1" name="Column1._id" tableColumnId="1"/>
       <queryTableField id="2" name="Column1.name" tableColumnId="2"/>
+      <queryTableField id="5" dataBound="0" tableColumnId="5"/>
       <queryTableField id="3" name="Column1.imageUrl" tableColumnId="3"/>
       <queryTableField id="4" name="Column1.price" tableColumnId="4"/>
     </queryTableFields>
@@ -159,11 +265,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E320B3C9-CED8-4A25-B92C-573F35B03866}" name="output__3" displayName="output__3" ref="A1:D6" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D6" xr:uid="{E320B3C9-CED8-4A25-B92C-573F35B03866}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E320B3C9-CED8-4A25-B92C-573F35B03866}" name="output__3" displayName="output__3" ref="A1:E21" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E21" xr:uid="{E320B3C9-CED8-4A25-B92C-573F35B03866}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{9CF80C4C-6725-4209-87D9-4F8E0465E8D8}" uniqueName="1" name="title" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{5FD51949-A11B-4D03-94C6-C22DDEC63127}" uniqueName="2" name="name" queryTableFieldId="2"/>
+    <tableColumn id="5" xr3:uid="{159DCBE4-07DF-4CE9-84EC-B8C2DDBC539C}" uniqueName="5" name="description" queryTableFieldId="5"/>
     <tableColumn id="3" xr3:uid="{1710F465-6ADC-4D97-A2BC-B9391D61CB3C}" uniqueName="3" name="imageUrl" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{623F29F4-96A6-406A-A0DA-B1159493E58E}" uniqueName="4" name="price" queryTableFieldId="4"/>
   </tableColumns>
@@ -468,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A861EE-CE75-420F-AFF9-AFFE1EBA72FB}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D12" sqref="D11:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -482,7 +589,7 @@
     <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -490,13 +597,16 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -504,13 +614,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -518,13 +631,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -532,13 +648,16 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -546,13 +665,16 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -560,10 +682,212 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/excel-data/Jackets-data.xlsx
+++ b/excel-data/Jackets-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bryan.joe.haboc\Desktop\Polder\the_odin_project\shop-app\excel-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748C46F8-3979-4C7F-97C1-54F1561E3EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A2482A-6E98-4F6D-97A7-A4E918281EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{513051CE-E720-410C-A646-25D963BBDB2D}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
   <si>
     <t>Black Jean Shearling</t>
   </si>
@@ -165,9 +165,6 @@
     <t>https://images.pexels.com/photos/8612946/pexels-photo-8612946.png?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
   </si>
   <si>
-    <t>Ash Grey Jacket</t>
-  </si>
-  <si>
     <t>https://images.pexels.com/photos/11332385/pexels-photo-11332385.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
   </si>
   <si>
@@ -196,6 +193,57 @@
   </si>
   <si>
     <t>A yellow hoodie can brighten up any outfit. Wear it with jeans or dress it up with skinny jeans and a vest.</t>
+  </si>
+  <si>
+    <t>Here's a high-quality black leather jacket for you. The jacket is made of high-quality materials, and it has a very good texture. Save money and save the environment with this friendly and fashionable high-quality leather jacket.</t>
+  </si>
+  <si>
+    <t>This blue denim jacket is a versatile, casual piece that is perfect for warmer weather. It is perfect for the weekend or for a night out with friends. It is made from 100% cotton.</t>
+  </si>
+  <si>
+    <t>A black sweatshirt with red sleeves, this is a cool looking zip up jacket. It has a button up front with two pockets on each side. It is a comfortable, casual piece.</t>
+  </si>
+  <si>
+    <t>This Dark Green Jacket is a must-have for the spring and summer season. Made of 100% cotton with a button front, this jacket is a wardrobe essential.</t>
+  </si>
+  <si>
+    <t>Its the Christmas season, and that means the time is right to get a new jacket to add a little festive sparkle to your holiday attire, and this green jacket is a lovely choice.</t>
+  </si>
+  <si>
+    <t>The black suit jacket is a versatile item that can be worn with a variety of different outfits. Buy one now!</t>
+  </si>
+  <si>
+    <t>A classic, elegant and flattering jacket. The black and red colour combination is stunning and the jacket has very flattering cut and shape.</t>
+  </si>
+  <si>
+    <t>A classic, easy-to-wear brown jacket for men.</t>
+  </si>
+  <si>
+    <t>Suede jackets are a great choice for those who have a penchant for everything classic, yet want a garment that's both classic and versatile.</t>
+  </si>
+  <si>
+    <t>Wondering what to wear for a date tonight? Here's a pink jacket that's both trendy and adorable.</t>
+  </si>
+  <si>
+    <t>Ash Gray Jacket</t>
+  </si>
+  <si>
+    <t>This is a simple and stylish Ash Gray Jacket. With a comfortable fit, it is a must have in your wardrobe.</t>
+  </si>
+  <si>
+    <t>A light colored jacket is a great way to highlight some of your favorite summer accessories.</t>
+  </si>
+  <si>
+    <t>A stylish jacket for men and women, made of a thick and warm fabric.</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/887898/pexels-photo-887898.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=2</t>
+  </si>
+  <si>
+    <t>Brown Leather Jacket</t>
+  </si>
+  <si>
+    <t>This is the perfect leather jacket for the fall and winter, with a classic and sophisticated look. This jacket is made from genuine leather, which offers a soft feel while keeping your skin protected from the cold.</t>
   </si>
 </sst>
 </file>
@@ -575,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A861EE-CE75-420F-AFF9-AFFE1EBA72FB}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D11:D12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -614,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -631,7 +679,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -648,7 +696,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -665,7 +713,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -682,7 +730,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -699,7 +747,7 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -715,6 +763,9 @@
       <c r="B8" t="s">
         <v>19</v>
       </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
@@ -729,6 +780,9 @@
       <c r="B9" t="s">
         <v>21</v>
       </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
@@ -743,6 +797,9 @@
       <c r="B10" t="s">
         <v>23</v>
       </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
@@ -757,6 +814,9 @@
       <c r="B11" t="s">
         <v>24</v>
       </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
       <c r="D11" t="s">
         <v>25</v>
       </c>
@@ -771,6 +831,9 @@
       <c r="B12" t="s">
         <v>27</v>
       </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
       <c r="D12" t="s">
         <v>26</v>
       </c>
@@ -785,6 +848,9 @@
       <c r="B13" t="s">
         <v>29</v>
       </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
       <c r="D13" t="s">
         <v>28</v>
       </c>
@@ -799,6 +865,9 @@
       <c r="B14" t="s">
         <v>31</v>
       </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
       <c r="D14" t="s">
         <v>30</v>
       </c>
@@ -813,6 +882,9 @@
       <c r="B15" t="s">
         <v>33</v>
       </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
       <c r="D15" t="s">
         <v>32</v>
       </c>
@@ -827,6 +899,9 @@
       <c r="B16" t="s">
         <v>35</v>
       </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
       <c r="D16" t="s">
         <v>34</v>
       </c>
@@ -841,6 +916,9 @@
       <c r="B17" t="s">
         <v>37</v>
       </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
       <c r="D17" t="s">
         <v>36</v>
       </c>
@@ -853,7 +931,10 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
       </c>
       <c r="D18" t="s">
         <v>38</v>
@@ -867,10 +948,13 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19">
         <v>140</v>
@@ -881,13 +965,33 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20">
         <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
